--- a/data/trans_dic/P43B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P43B_R-Edad-trans_dic.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6157235383090583</v>
+        <v>0.61999259974917</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4396063257656634</v>
+        <v>0.4116415099530196</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2878857015392323</v>
+        <v>0.2658603677220089</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9326862163414562</v>
+        <v>0.9603738359472678</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8922298074394557</v>
+        <v>0.8859907535772876</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8753668454842233</v>
+        <v>0.8802600221354019</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.568329444766918</v>
+        <v>0.5570061289626611</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6132873228258718</v>
+        <v>0.6095492541490554</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5675676760874231</v>
+        <v>0.564761483735275</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7866099929914822</v>
+        <v>0.7803427585830054</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8297339041129803</v>
+        <v>0.8235065152784553</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8297473799731394</v>
+        <v>0.821463255271256</v>
       </c>
     </row>
     <row r="10">
@@ -700,7 +700,7 @@
         <v>0.7437081496620077</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6507294113015903</v>
+        <v>0.6507294113015902</v>
       </c>
     </row>
     <row r="11">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6288799829493513</v>
+        <v>0.6337912908454386</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6827282862829113</v>
+        <v>0.6709921620184525</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5891961305141753</v>
+        <v>0.5733482369206738</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7567614019411726</v>
+        <v>0.7630220847744819</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8012597145117094</v>
+        <v>0.7988725016203891</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7172499594693695</v>
+        <v>0.7126112945039104</v>
       </c>
     </row>
     <row r="13">
@@ -755,7 +755,7 @@
         <v>0.8390171272343987</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7012651214548058</v>
+        <v>0.701265121454806</v>
       </c>
     </row>
     <row r="14">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7711548642903207</v>
+        <v>0.7718145487018625</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8006568248048872</v>
+        <v>0.7983646918965736</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6566644928539579</v>
+        <v>0.6601676332130539</v>
       </c>
     </row>
     <row r="15">
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8596701931186356</v>
+        <v>0.8577073500301605</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8738848018060777</v>
+        <v>0.8724149093143471</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.740579115559326</v>
+        <v>0.7406077426254992</v>
       </c>
     </row>
     <row r="16">
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8831280200044964</v>
+        <v>0.8868930294477252</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8917131117917791</v>
+        <v>0.8890756605729357</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8360352454853441</v>
+        <v>0.8398112111129368</v>
       </c>
     </row>
     <row r="18">
@@ -838,13 +838,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9457944686503521</v>
+        <v>0.9445173809116639</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9491404499301099</v>
+        <v>0.9483436732852317</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8931798756763564</v>
+        <v>0.8949759842776942</v>
       </c>
     </row>
     <row r="19">
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8994096607995208</v>
+        <v>0.8962300052493467</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8957760260810622</v>
+        <v>0.895318975467191</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8589111616872187</v>
+        <v>0.8584412268990966</v>
       </c>
     </row>
     <row r="21">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9621922492613435</v>
+        <v>0.9601265854978357</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9553933633509273</v>
+        <v>0.9586855479363707</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9150922294189956</v>
+        <v>0.9135474553917973</v>
       </c>
     </row>
     <row r="22">
@@ -931,13 +931,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.9054554767120117</v>
+        <v>0.9031071700415119</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9308162047049183</v>
+        <v>0.9256976201425792</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.89206576941323</v>
+        <v>0.8941363647368323</v>
       </c>
     </row>
     <row r="24">
@@ -948,13 +948,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9729105489026084</v>
+        <v>0.9707990880157517</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9887219678941739</v>
+        <v>0.9887231220576856</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9420046334392597</v>
+        <v>0.9412723841253747</v>
       </c>
     </row>
     <row r="25">
@@ -986,13 +986,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.8397180981315246</v>
+        <v>0.8383608093365885</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8587941645752558</v>
+        <v>0.8582657198588326</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.7991984197741219</v>
+        <v>0.7977047659592513</v>
       </c>
     </row>
     <row r="27">
@@ -1003,13 +1003,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8758287366935086</v>
+        <v>0.8738052782814929</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8923942353215487</v>
+        <v>0.891712296022897</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.832756917392991</v>
+        <v>0.8296705273291487</v>
       </c>
     </row>
     <row r="28">
@@ -1147,13 +1147,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>16863</v>
+        <v>16980</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8223</v>
+        <v>7700</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6316</v>
+        <v>5833</v>
       </c>
     </row>
     <row r="7">
@@ -1164,13 +1164,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>25543</v>
+        <v>26302</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>16689</v>
+        <v>16572</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>19205</v>
+        <v>19312</v>
       </c>
     </row>
     <row r="8">
@@ -1219,13 +1219,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>44222</v>
+        <v>43341</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>43194</v>
+        <v>42931</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>30410</v>
+        <v>30260</v>
       </c>
     </row>
     <row r="11">
@@ -1236,13 +1236,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>61207</v>
+        <v>60719</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>58439</v>
+        <v>58000</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>44458</v>
+        <v>44014</v>
       </c>
     </row>
     <row r="12">
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>144757</v>
+        <v>145888</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>148628</v>
+        <v>146073</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>83430</v>
+        <v>81186</v>
       </c>
     </row>
     <row r="15">
@@ -1308,13 +1308,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>174194</v>
+        <v>175635</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>174432</v>
+        <v>173912</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>101562</v>
+        <v>100905</v>
       </c>
     </row>
     <row r="16">
@@ -1363,13 +1363,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>309348</v>
+        <v>309613</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>336237</v>
+        <v>335275</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>207544</v>
+        <v>208651</v>
       </c>
     </row>
     <row r="19">
@@ -1380,13 +1380,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>344856</v>
+        <v>344068</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>366990</v>
+        <v>366372</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>234066</v>
+        <v>234075</v>
       </c>
     </row>
     <row r="20">
@@ -1435,13 +1435,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>353775</v>
+        <v>355283</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>387421</v>
+        <v>386275</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>297428</v>
+        <v>298771</v>
       </c>
     </row>
     <row r="23">
@@ -1452,13 +1452,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>378879</v>
+        <v>378367</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>412371</v>
+        <v>412025</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>317758</v>
+        <v>318397</v>
       </c>
     </row>
     <row r="24">
@@ -1507,13 +1507,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>267592</v>
+        <v>266646</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>272245</v>
+        <v>272106</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>254772</v>
+        <v>254633</v>
       </c>
     </row>
     <row r="27">
@@ -1524,13 +1524,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>286271</v>
+        <v>285657</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>290364</v>
+        <v>291365</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>271436</v>
+        <v>270978</v>
       </c>
     </row>
     <row r="28">
@@ -1579,13 +1579,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>181968</v>
+        <v>181497</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>210212</v>
+        <v>209056</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>249657</v>
+        <v>250237</v>
       </c>
     </row>
     <row r="31">
@@ -1596,13 +1596,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>195525</v>
+        <v>195101</v>
       </c>
       <c r="D31" s="6" t="n">
         <v>223289</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>263633</v>
+        <v>263428</v>
       </c>
     </row>
     <row r="32">
@@ -1651,13 +1651,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1373452</v>
+        <v>1371232</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1452230</v>
+        <v>1451336</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1171163</v>
+        <v>1168974</v>
       </c>
     </row>
     <row r="35">
@@ -1668,13 +1668,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>1432515</v>
+        <v>1429206</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1509048</v>
+        <v>1507894</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1220340</v>
+        <v>1215817</v>
       </c>
     </row>
     <row r="36">
